--- a/test1/KA_3_500.xlsx
+++ b/test1/KA_3_500.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x-plo\Documents\GitHub\MASystem\test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x-plo\Desktop\temp\pythonProject5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6F665-BE96-40D3-B297-F67EC674C63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3011F6E1-84C6-4CEF-84A8-296E21419D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="10">
   <si>
     <t>ППИ</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Виток</t>
   </si>
   <si>
-    <t>Сутки</t>
-  </si>
-  <si>
     <t>Дудинка</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>Мурманск</t>
   </si>
   <si>
-    <t>Краснонярск</t>
+    <t>Красноярск</t>
   </si>
 </sst>
 </file>
@@ -442,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F454"/>
+  <dimension ref="A1:E454"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="I451" sqref="I451"/>
+      <selection activeCell="Q434" sqref="Q434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +451,7 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,13 +467,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2058.6791780798103</v>
@@ -491,13 +485,10 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>7669.39561655532</v>
@@ -512,13 +503,10 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>8083.0398242721803</v>
@@ -533,13 +521,10 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>13297.8585504492</v>
@@ -554,13 +539,10 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>13617.926544681701</v>
@@ -575,13 +557,10 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>18933.838918020701</v>
@@ -596,13 +575,10 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>19028.6119679127</v>
@@ -617,13 +593,10 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>19229.299961601399</v>
@@ -638,13 +611,10 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>19339.982747370799</v>
@@ -659,13 +629,10 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>24532.3531504403</v>
@@ -680,13 +647,10 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>24624.807232790401</v>
@@ -701,13 +665,10 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>24812.514109735101</v>
@@ -722,13 +683,10 @@
       <c r="E13">
         <v>5</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>29911.739246678098</v>
@@ -743,13 +701,10 @@
       <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>30239.2832263856</v>
@@ -764,13 +719,10 @@
       <c r="E15">
         <v>6</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>30381.8688073952</v>
@@ -785,13 +737,10 @@
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>30481.011676117701</v>
@@ -806,13 +755,10 @@
       <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>35359.502264757197</v>
@@ -827,13 +773,10 @@
       <c r="E18">
         <v>7</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>35851.505369105202</v>
@@ -848,13 +791,10 @@
       <c r="E19">
         <v>7</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>35967.666535640201</v>
@@ -869,13 +809,10 @@
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>40906.465229731497</v>
@@ -890,13 +827,10 @@
       <c r="E21">
         <v>8</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>41438.443252249897</v>
@@ -911,13 +845,10 @@
       <c r="E22">
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>41580.642547345902</v>
@@ -932,13 +863,10 @@
       <c r="E23">
         <v>8</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>46522.591493680899</v>
@@ -953,13 +881,10 @@
       <c r="E24">
         <v>9</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>46586.441701791999</v>
@@ -974,13 +899,10 @@
       <c r="E25">
         <v>9</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>46974.3017520949</v>
@@ -995,13 +917,10 @@
       <c r="E26">
         <v>9</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>47195.118608249002</v>
@@ -1016,13 +935,10 @@
       <c r="E27">
         <v>9</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>51964.501340099501</v>
@@ -1037,13 +953,10 @@
       <c r="E28">
         <v>10</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>52479.042082289903</v>
@@ -1058,13 +971,10 @@
       <c r="E29">
         <v>10</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <v>52789.724244217003</v>
@@ -1079,13 +989,10 @@
       <c r="E30">
         <v>10</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>57739.431285891602</v>
@@ -1100,13 +1007,10 @@
       <c r="E31">
         <v>11</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>57836.568844607602</v>
@@ -1121,13 +1025,10 @@
       <c r="E32">
         <v>11</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>58013.727273801102</v>
@@ -1142,13 +1043,10 @@
       <c r="E33">
         <v>11</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34">
         <v>58332.602245581897</v>
@@ -1163,13 +1061,10 @@
       <c r="E34">
         <v>11</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>63411.408012868698</v>
@@ -1184,13 +1079,10 @@
       <c r="E35">
         <v>12</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>63624.626099710098</v>
@@ -1205,13 +1097,10 @@
       <c r="E36">
         <v>12</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>63832.7491622054</v>
@@ -1226,13 +1115,10 @@
       <c r="E37">
         <v>12</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>69301.709545963196</v>
@@ -1247,13 +1133,10 @@
       <c r="E38">
         <v>13</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>69349.654421883097</v>
@@ -1268,13 +1151,10 @@
       <c r="E39">
         <v>13</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>69354.008407175701</v>
@@ -1289,13 +1169,10 @@
       <c r="E40">
         <v>13</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>74947.658461866697</v>
@@ -1310,13 +1187,10 @@
       <c r="E41">
         <v>14</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>80651.238172896905</v>
@@ -1331,13 +1205,10 @@
       <c r="E42">
         <v>15</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>87033.232215801705</v>
@@ -1352,13 +1223,10 @@
       <c r="E43">
         <v>16</v>
       </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>92636.973932132401</v>
@@ -1373,13 +1241,10 @@
       <c r="E44">
         <v>17</v>
       </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>93147.541370617793</v>
@@ -1394,13 +1259,10 @@
       <c r="E45">
         <v>17</v>
       </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>98263.004112183902</v>
@@ -1415,13 +1277,10 @@
       <c r="E46">
         <v>18</v>
       </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>98587.626707193602</v>
@@ -1436,13 +1295,10 @@
       <c r="E47">
         <v>18</v>
       </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>103897.767329972</v>
@@ -1457,13 +1313,10 @@
       <c r="E48">
         <v>19</v>
       </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>104009.852164924</v>
@@ -1478,13 +1331,10 @@
       <c r="E49">
         <v>19</v>
       </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50">
         <v>104225.39231802399</v>
@@ -1499,13 +1349,10 @@
       <c r="E50">
         <v>19</v>
       </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>104257.994233014</v>
@@ -1520,13 +1367,10 @@
       <c r="E51">
         <v>19</v>
       </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <v>109594.84508617299</v>
@@ -1541,13 +1385,10 @@
       <c r="E52">
         <v>20</v>
       </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>109780.384388587</v>
@@ -1562,13 +1403,10 @@
       <c r="E53">
         <v>20</v>
       </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>114925.787150388</v>
@@ -1583,13 +1421,10 @@
       <c r="E54">
         <v>21</v>
       </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <v>115207.981896036</v>
@@ -1604,13 +1439,10 @@
       <c r="E55">
         <v>21</v>
       </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>115370.807315837</v>
@@ -1625,13 +1457,10 @@
       <c r="E56">
         <v>21</v>
       </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>115428.906276126</v>
@@ -1646,13 +1475,10 @@
       <c r="E57">
         <v>21</v>
       </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>120356.617376225</v>
@@ -1667,13 +1493,10 @@
       <c r="E58">
         <v>22</v>
       </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59">
         <v>120822.00084112601</v>
@@ -1688,13 +1511,10 @@
       <c r="E59">
         <v>22</v>
       </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>120938.612095545</v>
@@ -1709,13 +1529,10 @@
       <c r="E60">
         <v>22</v>
       </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61">
         <v>125879.958849627</v>
@@ -1730,13 +1547,10 @@
       <c r="E61">
         <v>23</v>
       </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62">
         <v>126416.74458674301</v>
@@ -1751,13 +1565,10 @@
       <c r="E62">
         <v>23</v>
       </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>126549.54720017299</v>
@@ -1772,13 +1583,10 @@
       <c r="E63">
         <v>23</v>
       </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64">
         <v>131527.54594529298</v>
@@ -1793,13 +1601,10 @@
       <c r="E64">
         <v>24</v>
       </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>131641.55544062101</v>
@@ -1814,13 +1619,10 @@
       <c r="E65">
         <v>24</v>
       </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>131964.349465862</v>
@@ -1835,13 +1637,10 @@
       <c r="E66">
         <v>24</v>
       </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>132164.023146024</v>
@@ -1856,13 +1655,10 @@
       <c r="E67">
         <v>24</v>
       </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68">
         <v>136943.36932622999</v>
@@ -1877,13 +1673,10 @@
       <c r="E68">
         <v>25</v>
       </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69">
         <v>137409.529443932</v>
@@ -1898,13 +1691,10 @@
       <c r="E69">
         <v>25</v>
       </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70">
         <v>137470.81234078601</v>
@@ -1919,13 +1709,10 @@
       <c r="E70">
         <v>25</v>
       </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>137766.19724635099</v>
@@ -1940,13 +1727,10 @@
       <c r="E71">
         <v>25</v>
       </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72">
         <v>142631.21946547099</v>
@@ -1961,13 +1745,10 @@
       <c r="E72">
         <v>26</v>
       </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73">
         <v>142840.425821885</v>
@@ -1982,13 +1763,10 @@
       <c r="E73">
         <v>26</v>
       </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74">
         <v>142994.481323613</v>
@@ -2003,13 +1781,10 @@
       <c r="E74">
         <v>26</v>
       </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75">
         <v>143321.89096369801</v>
@@ -2024,13 +1799,10 @@
       <c r="E75">
         <v>26</v>
       </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76">
         <v>148371.567798078</v>
@@ -2045,13 +1817,10 @@
       <c r="E76">
         <v>27</v>
       </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77">
         <v>148586.16457557399</v>
@@ -2066,13 +1835,10 @@
       <c r="E77">
         <v>27</v>
       </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78">
         <v>148826.488582488</v>
@@ -2087,13 +1853,10 @@
       <c r="E78">
         <v>27</v>
       </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>154142.11804408001</v>
@@ -2108,13 +1871,10 @@
       <c r="E79">
         <v>28</v>
       </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80">
         <v>154282.67095677901</v>
@@ -2129,13 +1889,10 @@
       <c r="E80">
         <v>28</v>
       </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81">
         <v>154338.035110375</v>
@@ -2150,13 +1907,10 @@
       <c r="E81">
         <v>28</v>
       </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>159913.10996719199</v>
@@ -2171,13 +1925,10 @@
       <c r="E82">
         <v>29</v>
       </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83">
         <v>165589.532644016</v>
@@ -2192,13 +1943,10 @@
       <c r="E83">
         <v>30</v>
       </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84">
         <v>171450.76282250401</v>
@@ -2213,13 +1961,10 @@
       <c r="E84">
         <v>31</v>
       </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85">
         <v>172011.144321876</v>
@@ -2234,13 +1979,10 @@
       <c r="E85">
         <v>31</v>
       </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86">
         <v>177605.47042234699</v>
@@ -2255,13 +1997,10 @@
       <c r="E86">
         <v>32</v>
       </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87">
         <v>183228.43935205601</v>
@@ -2276,13 +2015,10 @@
       <c r="E87">
         <v>33</v>
       </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88">
         <v>183563.61897761299</v>
@@ -2297,13 +2033,10 @@
       <c r="E88">
         <v>33</v>
       </c>
-      <c r="F88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89">
         <v>188861.83116440001</v>
@@ -2318,13 +2051,10 @@
       <c r="E89">
         <v>34</v>
       </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90">
         <v>188999.62186640699</v>
@@ -2339,13 +2069,10 @@
       <c r="E90">
         <v>34</v>
       </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91">
         <v>189199.34603718101</v>
@@ -2360,13 +2087,10 @@
       <c r="E91">
         <v>34</v>
       </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92">
         <v>189245.57361873501</v>
@@ -2381,13 +2105,10 @@
       <c r="E92">
         <v>34</v>
       </c>
-      <c r="F92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B93">
         <v>194502.97579618299</v>
@@ -2402,13 +2123,10 @@
       <c r="E93">
         <v>35</v>
       </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <v>194565.68711621399</v>
@@ -2423,13 +2141,10 @@
       <c r="E94">
         <v>35</v>
       </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95">
         <v>194751.68266478</v>
@@ -2444,13 +2159,10 @@
       <c r="E95">
         <v>35</v>
       </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96">
         <v>199942.374083906</v>
@@ -2465,13 +2177,10 @@
       <c r="E96">
         <v>36</v>
       </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97">
         <v>200176.68058923099</v>
@@ -2486,13 +2195,10 @@
       <c r="E97">
         <v>36</v>
       </c>
-      <c r="F97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B98">
         <v>200380.533656618</v>
@@ -2507,13 +2213,10 @@
       <c r="E98">
         <v>36</v>
       </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99">
         <v>200383.47063984099</v>
@@ -2528,13 +2231,10 @@
       <c r="E99">
         <v>36</v>
       </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100">
         <v>205357.958800591</v>
@@ -2549,13 +2249,10 @@
       <c r="E100">
         <v>37</v>
       </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B101">
         <v>205792.124037726</v>
@@ -2570,13 +2267,10 @@
       <c r="E101">
         <v>37</v>
       </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B102">
         <v>205911.05407367999</v>
@@ -2591,13 +2285,10 @@
       <c r="E102">
         <v>37</v>
       </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B103">
         <v>210858.99433122401</v>
@@ -2612,13 +2303,10 @@
       <c r="E103">
         <v>38</v>
       </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104">
         <v>211392.99097083099</v>
@@ -2633,13 +2321,10 @@
       <c r="E104">
         <v>38</v>
       </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B105">
         <v>211518.45187748701</v>
@@ -2654,13 +2339,10 @@
       <c r="E105">
         <v>38</v>
       </c>
-      <c r="F105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B106">
         <v>216476.893419256</v>
@@ -2675,13 +2357,10 @@
       <c r="E106">
         <v>39</v>
       </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B107">
         <v>216952.25687332699</v>
@@ -2696,13 +2375,10 @@
       <c r="E107">
         <v>39</v>
       </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108">
         <v>217132.92770828499</v>
@@ -2717,13 +2393,10 @@
       <c r="E108">
         <v>39</v>
       </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109">
         <v>221934.69907745501</v>
@@ -2738,13 +2411,10 @@
       <c r="E109">
         <v>40</v>
       </c>
-      <c r="F109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110">
         <v>222272.81941839401</v>
@@ -2759,13 +2429,10 @@
       <c r="E110">
         <v>40</v>
       </c>
-      <c r="F110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B111">
         <v>222463.44654686199</v>
@@ -2780,13 +2447,10 @@
       <c r="E111">
         <v>40</v>
       </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112">
         <v>222740.618429497</v>
@@ -2801,13 +2465,10 @@
       <c r="E112">
         <v>40</v>
       </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113">
         <v>227554.877125136</v>
@@ -2822,13 +2483,10 @@
       <c r="E113">
         <v>41</v>
       </c>
-      <c r="F113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B114">
         <v>227855.295877367</v>
@@ -2843,13 +2501,10 @@
       <c r="E114">
         <v>41</v>
       </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B115">
         <v>227978.380297948</v>
@@ -2864,13 +2519,10 @@
       <c r="E115">
         <v>41</v>
       </c>
-      <c r="F115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B116">
         <v>228308.53815406101</v>
@@ -2885,13 +2537,10 @@
       <c r="E116">
         <v>41</v>
       </c>
-      <c r="F116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117">
         <v>233341.33483532499</v>
@@ -2906,13 +2555,10 @@
       <c r="E117">
         <v>42</v>
       </c>
-      <c r="F117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B118">
         <v>233552.395322372</v>
@@ -2927,13 +2573,10 @@
       <c r="E118">
         <v>42</v>
       </c>
-      <c r="F118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119">
         <v>233820.61578492701</v>
@@ -2948,13 +2591,10 @@
       <c r="E119">
         <v>42</v>
       </c>
-      <c r="F119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B120">
         <v>239046.35166354201</v>
@@ -2969,13 +2609,10 @@
       <c r="E120">
         <v>43</v>
       </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B121">
         <v>239223.14268047301</v>
@@ -2990,13 +2627,10 @@
       <c r="E121">
         <v>43</v>
       </c>
-      <c r="F121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122">
         <v>239325.02477236901</v>
@@ -3011,13 +2645,10 @@
       <c r="E122">
         <v>43</v>
       </c>
-      <c r="F122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B123">
         <v>244883.119915558</v>
@@ -3032,13 +2663,10 @@
       <c r="E123">
         <v>44</v>
       </c>
-      <c r="F123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B124">
         <v>245057.405069114</v>
@@ -3053,13 +2681,10 @@
       <c r="E124">
         <v>44</v>
       </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125">
         <v>250534.75484620599</v>
@@ -3074,13 +2699,10 @@
       <c r="E125">
         <v>45</v>
       </c>
-      <c r="F125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B126">
         <v>256333.74534259</v>
@@ -3095,13 +2717,10 @@
       <c r="E126">
         <v>46</v>
       </c>
-      <c r="F126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B127">
         <v>256994.25197041401</v>
@@ -3116,13 +2735,10 @@
       <c r="E127">
         <v>46</v>
       </c>
-      <c r="F127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B128">
         <v>262575.11953929201</v>
@@ -3137,13 +2753,10 @@
       <c r="E128">
         <v>47</v>
       </c>
-      <c r="F128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B129">
         <v>268194.33667949599</v>
@@ -3158,13 +2771,10 @@
       <c r="E129">
         <v>48</v>
       </c>
-      <c r="F129">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130">
         <v>268547.47125900298</v>
@@ -3179,13 +2789,10 @@
       <c r="E130">
         <v>48</v>
       </c>
-      <c r="F130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B131">
         <v>273826.205253658</v>
@@ -3200,13 +2807,10 @@
       <c r="E131">
         <v>49</v>
       </c>
-      <c r="F131">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B132">
         <v>274014.60945662402</v>
@@ -3221,13 +2825,10 @@
       <c r="E132">
         <v>49</v>
       </c>
-      <c r="F132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133">
         <v>274151.51683806098</v>
@@ -3242,13 +2843,10 @@
       <c r="E133">
         <v>49</v>
       </c>
-      <c r="F133">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B134">
         <v>279464.59546346101</v>
@@ -3263,13 +2861,10 @@
       <c r="E134">
         <v>50</v>
       </c>
-      <c r="F134">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B135">
         <v>279538.13336262503</v>
@@ -3284,13 +2879,10 @@
       <c r="E135">
         <v>50</v>
       </c>
-      <c r="F135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B136">
         <v>279726.87794470799</v>
@@ -3305,13 +2897,10 @@
       <c r="E136">
         <v>50</v>
       </c>
-      <c r="F136">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B137">
         <v>284961.166488346</v>
@@ -3326,13 +2915,10 @@
       <c r="E137">
         <v>51</v>
       </c>
-      <c r="F137">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B138">
         <v>285145.499976005</v>
@@ -3347,13 +2933,10 @@
       <c r="E138">
         <v>51</v>
       </c>
-      <c r="F138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B139">
         <v>285342.562442436</v>
@@ -3368,13 +2951,10 @@
       <c r="E139">
         <v>51</v>
       </c>
-      <c r="F139">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B140">
         <v>290363.21643528203</v>
@@ -3389,13 +2969,10 @@
       <c r="E140">
         <v>52</v>
       </c>
-      <c r="F140">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B141">
         <v>290760.82264386798</v>
@@ -3410,13 +2987,10 @@
       <c r="E141">
         <v>52</v>
       </c>
-      <c r="F141">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B142">
         <v>290885.44487063901</v>
@@ -3431,13 +3005,10 @@
       <c r="E142">
         <v>52</v>
       </c>
-      <c r="F142">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B143">
         <v>291089.45694686502</v>
@@ -3452,13 +3023,10 @@
       <c r="E143">
         <v>52</v>
       </c>
-      <c r="F143">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B144">
         <v>295843.29513904301</v>
@@ -3473,13 +3041,10 @@
       <c r="E144">
         <v>53</v>
       </c>
-      <c r="F144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B145">
         <v>296367.27617273101</v>
@@ -3494,13 +3059,10 @@
       <c r="E145">
         <v>53</v>
       </c>
-      <c r="F145">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B146">
         <v>296487.58760011499</v>
@@ -3515,13 +3077,10 @@
       <c r="E146">
         <v>53</v>
       </c>
-      <c r="F146">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B147">
         <v>301433.52267267701</v>
@@ -3536,13 +3095,10 @@
       <c r="E147">
         <v>54</v>
       </c>
-      <c r="F147">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B148">
         <v>301937.64295341802</v>
@@ -3557,13 +3113,10 @@
       <c r="E148">
         <v>54</v>
       </c>
-      <c r="F148">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B149">
         <v>302101.83229504002</v>
@@ -3578,13 +3131,10 @@
       <c r="E149">
         <v>54</v>
       </c>
-      <c r="F149">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150">
         <v>306939.57369730098</v>
@@ -3599,13 +3149,10 @@
       <c r="E150">
         <v>55</v>
       </c>
-      <c r="F150">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B151">
         <v>307178.67695772898</v>
@@ -3620,13 +3167,10 @@
       <c r="E151">
         <v>55</v>
       </c>
-      <c r="F151">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B152">
         <v>307456.29574294901</v>
@@ -3641,13 +3185,10 @@
       <c r="E152">
         <v>55</v>
       </c>
-      <c r="F152">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B153">
         <v>307713.29800463299</v>
@@ -3662,13 +3203,10 @@
       <c r="E153">
         <v>55</v>
       </c>
-      <c r="F153">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B154">
         <v>312497.51925349102</v>
@@ -3683,13 +3221,10 @@
       <c r="E154">
         <v>56</v>
       </c>
-      <c r="F154">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B155">
         <v>312884.82559886499</v>
@@ -3704,13 +3239,10 @@
       <c r="E155">
         <v>56</v>
       </c>
-      <c r="F155">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B156">
         <v>312965.037236862</v>
@@ -3725,13 +3257,10 @@
       <c r="E156">
         <v>56</v>
       </c>
-      <c r="F156">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B157">
         <v>313292.23469972098</v>
@@ -3746,13 +3275,10 @@
       <c r="E157">
         <v>56</v>
       </c>
-      <c r="F157">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B158">
         <v>318320.20690007298</v>
@@ -3767,13 +3293,10 @@
       <c r="E158">
         <v>57</v>
       </c>
-      <c r="F158">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B159">
         <v>318522.97974514199</v>
@@ -3788,13 +3311,10 @@
       <c r="E159">
         <v>57</v>
       </c>
-      <c r="F159">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B160">
         <v>318814.40914795001</v>
@@ -3809,13 +3329,10 @@
       <c r="E160">
         <v>57</v>
       </c>
-      <c r="F160">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B161">
         <v>323972.69131266599</v>
@@ -3830,13 +3347,10 @@
       <c r="E161">
         <v>58</v>
       </c>
-      <c r="F161">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B162">
         <v>324170.07468192501</v>
@@ -3851,13 +3365,10 @@
       <c r="E162">
         <v>58</v>
       </c>
-      <c r="F162">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B163">
         <v>324314.54944610997</v>
@@ -3872,13 +3383,10 @@
       <c r="E163">
         <v>58</v>
       </c>
-      <c r="F163">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B164">
         <v>329857.344797378</v>
@@ -3893,13 +3401,10 @@
       <c r="E164">
         <v>59</v>
       </c>
-      <c r="F164">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B165">
         <v>329954.27885721199</v>
@@ -3914,13 +3419,10 @@
       <c r="E165">
         <v>59</v>
       </c>
-      <c r="F165">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B166">
         <v>335486.094011029</v>
@@ -3935,13 +3437,10 @@
       <c r="E166">
         <v>60</v>
       </c>
-      <c r="F166">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B167">
         <v>341243.931755581</v>
@@ -3956,13 +3455,10 @@
       <c r="E167">
         <v>61</v>
       </c>
-      <c r="F167">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B168">
         <v>341986.08720565302</v>
@@ -3977,13 +3473,10 @@
       <c r="E168">
         <v>61</v>
       </c>
-      <c r="F168">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B169">
         <v>347546.196206983</v>
@@ -3998,13 +3491,10 @@
       <c r="E169">
         <v>62</v>
       </c>
-      <c r="F169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B170">
         <v>353160.839789811</v>
@@ -4019,13 +3509,10 @@
       <c r="E170">
         <v>63</v>
       </c>
-      <c r="F170">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B171">
         <v>353542.86330110597</v>
@@ -4040,13 +3527,10 @@
       <c r="E171">
         <v>63</v>
       </c>
-      <c r="F171">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B172">
         <v>358790.81646214903</v>
@@ -4061,13 +3545,10 @@
       <c r="E172">
         <v>64</v>
       </c>
-      <c r="F172">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B173">
         <v>359111.02454937698</v>
@@ -4082,13 +3563,10 @@
       <c r="E173">
         <v>64</v>
       </c>
-      <c r="F173">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B174">
         <v>364427.73708012799</v>
@@ -4103,13 +3581,10 @@
       <c r="E174">
         <v>65</v>
       </c>
-      <c r="F174">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B175">
         <v>364512.88502682798</v>
@@ -4124,13 +3599,10 @@
       <c r="E175">
         <v>65</v>
       </c>
-      <c r="F175">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B176">
         <v>364707.23915248102</v>
@@ -4145,13 +3617,10 @@
       <c r="E176">
         <v>65</v>
       </c>
-      <c r="F176">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B177">
         <v>369982.27456091403</v>
@@ -4166,13 +3635,10 @@
       <c r="E177">
         <v>66</v>
       </c>
-      <c r="F177">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B178">
         <v>370114.69735993398</v>
@@ -4187,13 +3653,10 @@
       <c r="E178">
         <v>66</v>
       </c>
-      <c r="F178">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B179">
         <v>370305.10853217501</v>
@@ -4208,13 +3671,10 @@
       <c r="E179">
         <v>66</v>
       </c>
-      <c r="F179">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B180">
         <v>375372.05118530302</v>
@@ -4229,13 +3689,10 @@
       <c r="E180">
         <v>67</v>
       </c>
-      <c r="F180">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B181">
         <v>375729.52127355197</v>
@@ -4250,13 +3707,10 @@
       <c r="E181">
         <v>67</v>
       </c>
-      <c r="F181">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B182">
         <v>375863.22251731</v>
@@ -4271,13 +3725,10 @@
       <c r="E182">
         <v>67</v>
       </c>
-      <c r="F182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B183">
         <v>375992.94410715299</v>
@@ -4292,13 +3743,10 @@
       <c r="E183">
         <v>67</v>
       </c>
-      <c r="F183">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B184">
         <v>380832.58057664899</v>
@@ -4313,13 +3761,10 @@
       <c r="E184">
         <v>68</v>
       </c>
-      <c r="F184">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B185">
         <v>381339.79101909301</v>
@@ -4334,13 +3779,10 @@
       <c r="E185">
         <v>68</v>
       </c>
-      <c r="F185">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B186">
         <v>381457.07032774098</v>
@@ -4355,13 +3797,10 @@
       <c r="E186">
         <v>68</v>
       </c>
-      <c r="F186">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B187">
         <v>386396.80752389698</v>
@@ -4376,13 +3815,10 @@
       <c r="E187">
         <v>69</v>
       </c>
-      <c r="F187">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B188">
         <v>386920.37852015102</v>
@@ -4397,13 +3833,10 @@
       <c r="E188">
         <v>69</v>
       </c>
-      <c r="F188">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B189">
         <v>387070.73690629</v>
@@ -4418,13 +3851,10 @@
       <c r="E189">
         <v>69</v>
       </c>
-      <c r="F189">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B190">
         <v>391961.25217499898</v>
@@ -4439,13 +3869,10 @@
       <c r="E190">
         <v>70</v>
       </c>
-      <c r="F190">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B191">
         <v>392101.58708211803</v>
@@ -4460,13 +3887,10 @@
       <c r="E191">
         <v>70</v>
       </c>
-      <c r="F191">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B192">
         <v>392448.672658303</v>
@@ -4481,13 +3905,10 @@
       <c r="E192">
         <v>70</v>
       </c>
-      <c r="F192">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B193">
         <v>392685.01579720702</v>
@@ -4502,13 +3923,10 @@
       <c r="E193">
         <v>70</v>
       </c>
-      <c r="F193">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B194">
         <v>397454.92129470798</v>
@@ -4523,13 +3941,10 @@
       <c r="E194">
         <v>71</v>
       </c>
-      <c r="F194">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B195">
         <v>397944.23167585599</v>
@@ -4544,13 +3959,10 @@
       <c r="E195">
         <v>71</v>
       </c>
-      <c r="F195">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B196">
         <v>397954.01614223298</v>
@@ -4565,13 +3977,10 @@
       <c r="E196">
         <v>71</v>
       </c>
-      <c r="F196">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B197">
         <v>398273.112862768</v>
@@ -4586,13 +3995,10 @@
       <c r="E197">
         <v>71</v>
       </c>
-      <c r="F197">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B198">
         <v>403308.046806233</v>
@@ -4607,13 +4013,10 @@
       <c r="E198">
         <v>72</v>
       </c>
-      <c r="F198">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B199">
         <v>403357.12481769797</v>
@@ -4628,13 +4031,10 @@
       <c r="E199">
         <v>72</v>
       </c>
-      <c r="F199">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B200">
         <v>403497.59604219999</v>
@@ -4649,13 +4049,10 @@
       <c r="E200">
         <v>72</v>
       </c>
-      <c r="F200">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B201">
         <v>403807.106881032</v>
@@ -4670,13 +4067,10 @@
       <c r="E201">
         <v>72</v>
       </c>
-      <c r="F201">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B202">
         <v>408913.79262046801</v>
@@ -4691,13 +4085,10 @@
       <c r="E202">
         <v>73</v>
       </c>
-      <c r="F202">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B203">
         <v>409122.817195763</v>
@@ -4712,13 +4103,10 @@
       <c r="E203">
         <v>73</v>
       </c>
-      <c r="F203">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B204">
         <v>409306.12011394103</v>
@@ -4733,13 +4121,10 @@
       <c r="E204">
         <v>73</v>
       </c>
-      <c r="F204">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B205">
         <v>414835.50816703303</v>
@@ -4754,13 +4139,10 @@
       <c r="E205">
         <v>74</v>
       </c>
-      <c r="F205">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B206">
         <v>414870.01386745</v>
@@ -4775,13 +4157,10 @@
       <c r="E206">
         <v>74</v>
       </c>
-      <c r="F206">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B207">
         <v>420443.03116651502</v>
@@ -4796,13 +4175,10 @@
       <c r="E207">
         <v>75</v>
       </c>
-      <c r="F207">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B208">
         <v>426167.345381919</v>
@@ -4817,13 +4193,10 @@
       <c r="E208">
         <v>76</v>
       </c>
-      <c r="F208">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B209">
         <v>427000.18529351603</v>
@@ -4838,13 +4211,10 @@
       <c r="E209">
         <v>76</v>
       </c>
-      <c r="F209">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B210">
         <v>432519.019196707</v>
@@ -4859,13 +4229,10 @@
       <c r="E210">
         <v>77</v>
       </c>
-      <c r="F210">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B211">
         <v>438127.93956091697</v>
@@ -4880,13 +4247,10 @@
       <c r="E211">
         <v>78</v>
       </c>
-      <c r="F211">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B212">
         <v>438560.47087993298</v>
@@ -4901,13 +4265,10 @@
       <c r="E212">
         <v>78</v>
       </c>
-      <c r="F212">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B213">
         <v>443755.61608694203</v>
@@ -4922,13 +4283,10 @@
       <c r="E213">
         <v>79</v>
       </c>
-      <c r="F213">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B214">
         <v>444076.54538736399</v>
@@ -4943,13 +4301,10 @@
       <c r="E214">
         <v>79</v>
       </c>
-      <c r="F214">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B215">
         <v>449391.29458319402</v>
@@ -4964,13 +4319,10 @@
       <c r="E215">
         <v>80</v>
       </c>
-      <c r="F215">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B216">
         <v>449490.78375171497</v>
@@ -4985,13 +4337,10 @@
       <c r="E216">
         <v>80</v>
       </c>
-      <c r="F216">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B217">
         <v>449695.07155730203</v>
@@ -5006,13 +4355,10 @@
       <c r="E217">
         <v>80</v>
       </c>
-      <c r="F217">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B218">
         <v>449779.21500115702</v>
@@ -5027,13 +4373,10 @@
       <c r="E218">
         <v>80</v>
       </c>
-      <c r="F218">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B219">
         <v>455083.89476971101</v>
@@ -5048,13 +4391,10 @@
       <c r="E219">
         <v>81</v>
       </c>
-      <c r="F219">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B220">
         <v>455270.88902048703</v>
@@ -5069,13 +4409,10 @@
       <c r="E220">
         <v>81</v>
       </c>
-      <c r="F220">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B221">
         <v>460384.09362887603</v>
@@ -5090,13 +4427,10 @@
       <c r="E221">
         <v>82</v>
       </c>
-      <c r="F221">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B222">
         <v>460698.21992678102</v>
@@ -5111,13 +4445,10 @@
       <c r="E222">
         <v>82</v>
       </c>
-      <c r="F222">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B223">
         <v>460845.923262353</v>
@@ -5132,13 +4463,10 @@
       <c r="E223">
         <v>82</v>
       </c>
-      <c r="F223">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B224">
         <v>460932.70852415799</v>
@@ -5153,13 +4481,10 @@
       <c r="E224">
         <v>82</v>
       </c>
-      <c r="F224">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B225">
         <v>465826.571167027</v>
@@ -5174,13 +4499,10 @@
       <c r="E225">
         <v>83</v>
       </c>
-      <c r="F225">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B226">
         <v>466310.98546592402</v>
@@ -5195,13 +4517,10 @@
       <c r="E226">
         <v>83</v>
       </c>
-      <c r="F226">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B227">
         <v>466427.28274988499</v>
@@ -5216,13 +4535,10 @@
       <c r="E227">
         <v>83</v>
       </c>
-      <c r="F227">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B228">
         <v>471366.23911561701</v>
@@ -5237,13 +4553,10 @@
       <c r="E228">
         <v>84</v>
       </c>
-      <c r="F228">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B229">
         <v>471900.477850586</v>
@@ -5258,13 +4571,10 @@
       <c r="E229">
         <v>84</v>
       </c>
-      <c r="F229">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B230">
         <v>472039.64154203603</v>
@@ -5279,13 +4589,10 @@
       <c r="E230">
         <v>84</v>
       </c>
-      <c r="F230">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B231">
         <v>477010.10122167203</v>
@@ -5300,13 +4607,10 @@
       <c r="E231">
         <v>85</v>
       </c>
-      <c r="F231">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B232">
         <v>477036.08875755098</v>
@@ -5321,13 +4625,10 @@
       <c r="E232">
         <v>85</v>
       </c>
-      <c r="F232">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B233">
         <v>477439.888174586</v>
@@ -5342,13 +4643,10 @@
       <c r="E233">
         <v>85</v>
       </c>
-      <c r="F233">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B234">
         <v>477654.11756814597</v>
@@ -5363,13 +4661,10 @@
       <c r="E234">
         <v>85</v>
       </c>
-      <c r="F234">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B235">
         <v>482425.232675982</v>
@@ -5384,13 +4679,10 @@
       <c r="E235">
         <v>86</v>
       </c>
-      <c r="F235">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B236">
         <v>482944.82467356301</v>
@@ -5405,13 +4697,10 @@
       <c r="E236">
         <v>86</v>
       </c>
-      <c r="F236">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B237">
         <v>483251.250264014</v>
@@ -5426,13 +4715,10 @@
       <c r="E237">
         <v>86</v>
       </c>
-      <c r="F237">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B238">
         <v>488169.98568532802</v>
@@ -5447,13 +4733,10 @@
       <c r="E238">
         <v>87</v>
       </c>
-      <c r="F238">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B239">
         <v>488305.08600038697</v>
@@ -5468,13 +4751,10 @@
       <c r="E239">
         <v>87</v>
       </c>
-      <c r="F239">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B240">
         <v>488475.94330635801</v>
@@ -5489,13 +4769,10 @@
       <c r="E240">
         <v>87</v>
       </c>
-      <c r="F240">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B241">
         <v>488798.03063825303</v>
@@ -5510,13 +4787,10 @@
       <c r="E241">
         <v>87</v>
       </c>
-      <c r="F241">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B242">
         <v>493866.706484981</v>
@@ -5531,13 +4805,10 @@
       <c r="E242">
         <v>88</v>
       </c>
-      <c r="F242">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B243">
         <v>494080.870478264</v>
@@ -5552,13 +4823,10 @@
       <c r="E243">
         <v>88</v>
       </c>
-      <c r="F243">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B244">
         <v>494299.17905958398</v>
@@ -5573,13 +4841,10 @@
       <c r="E244">
         <v>88</v>
       </c>
-      <c r="F244">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B245">
         <v>499704.54912541597</v>
@@ -5594,13 +4859,10 @@
       <c r="E245">
         <v>89</v>
       </c>
-      <c r="F245">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B246">
         <v>499796.93764146999</v>
@@ -5615,13 +4877,10 @@
       <c r="E246">
         <v>89</v>
       </c>
-      <c r="F246">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B247">
         <v>499817.25169133302</v>
@@ -5636,13 +4895,10 @@
       <c r="E247">
         <v>89</v>
       </c>
-      <c r="F247">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B248">
         <v>505405.11663823802</v>
@@ -5657,13 +4913,10 @@
       <c r="E248">
         <v>90</v>
       </c>
-      <c r="F248">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B249">
         <v>511100.20003238303</v>
@@ -5678,13 +4931,10 @@
       <c r="E249">
         <v>91</v>
       </c>
-      <c r="F249">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B250">
         <v>517494.62191101501</v>
@@ -5699,13 +4949,10 @@
       <c r="E250">
         <v>92</v>
       </c>
-      <c r="F250">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B251">
         <v>523095.79660731601</v>
@@ -5720,13 +4967,10 @@
       <c r="E251">
         <v>93</v>
       </c>
-      <c r="F251">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B252">
         <v>528720.91361309995</v>
@@ -5741,13 +4985,10 @@
       <c r="E252">
         <v>94</v>
       </c>
-      <c r="F252">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>8</v>
       </c>
       <c r="B253">
         <v>529048.041117521</v>
@@ -5762,13 +5003,10 @@
       <c r="E253">
         <v>94</v>
       </c>
-      <c r="F253">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B254">
         <v>534355.27803556796</v>
@@ -5783,13 +5021,10 @@
       <c r="E254">
         <v>95</v>
       </c>
-      <c r="F254">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B255">
         <v>534473.96332321805</v>
@@ -5804,13 +5039,10 @@
       <c r="E255">
         <v>95</v>
       </c>
-      <c r="F255">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B256">
         <v>534696.07606177498</v>
@@ -5825,13 +5057,10 @@
       <c r="E256">
         <v>95</v>
       </c>
-      <c r="F256">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>8</v>
       </c>
       <c r="B257">
         <v>534707.13525934704</v>
@@ -5846,13 +5075,10 @@
       <c r="E257">
         <v>95</v>
       </c>
-      <c r="F257">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B258">
         <v>540054.38369640405</v>
@@ -5867,13 +5093,10 @@
       <c r="E258">
         <v>96</v>
       </c>
-      <c r="F258">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B259">
         <v>540239.739796162</v>
@@ -5888,13 +5111,10 @@
       <c r="E259">
         <v>96</v>
       </c>
-      <c r="F259">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B260">
         <v>545398.95246680302</v>
@@ -5909,13 +5129,10 @@
       <c r="E260">
         <v>97</v>
       </c>
-      <c r="F260">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B261">
         <v>545666.91860355495</v>
@@ -5930,13 +5147,10 @@
       <c r="E261">
         <v>97</v>
       </c>
-      <c r="F261">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B262">
         <v>545838.59089596604</v>
@@ -5951,13 +5165,10 @@
       <c r="E262">
         <v>97</v>
       </c>
-      <c r="F262">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B263">
         <v>545882.99488645897</v>
@@ -5972,13 +5183,10 @@
       <c r="E263">
         <v>97</v>
       </c>
-      <c r="F263">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B264">
         <v>550824.99119833705</v>
@@ -5993,13 +5201,10 @@
       <c r="E264">
         <v>98</v>
       </c>
-      <c r="F264">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B265">
         <v>551281.480947754</v>
@@ -6014,13 +5219,10 @@
       <c r="E265">
         <v>98</v>
       </c>
-      <c r="F265">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B266">
         <v>551398.523958195</v>
@@ -6035,13 +5237,10 @@
       <c r="E266">
         <v>98</v>
       </c>
-      <c r="F266">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B267">
         <v>556341.44054721703</v>
@@ -6056,13 +5255,10 @@
       <c r="E267">
         <v>99</v>
       </c>
-      <c r="F267">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B268">
         <v>556878.28943636303</v>
@@ -6077,13 +5273,10 @@
       <c r="E268">
         <v>99</v>
       </c>
-      <c r="F268">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B269">
         <v>557008.54620227101</v>
@@ -6098,13 +5291,10 @@
       <c r="E269">
         <v>99</v>
       </c>
-      <c r="F269">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B270">
         <v>561979.81315381499</v>
@@ -6119,13 +5309,10 @@
       <c r="E270">
         <v>100</v>
       </c>
-      <c r="F270">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B271">
         <v>562429.33815204306</v>
@@ -6140,13 +5327,10 @@
       <c r="E271">
         <v>100</v>
       </c>
-      <c r="F271">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B272">
         <v>562623.02211332601</v>
@@ -6161,13 +5345,10 @@
       <c r="E272">
         <v>100</v>
       </c>
-      <c r="F272">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>8</v>
       </c>
       <c r="B273">
         <v>567407.82386171201</v>
@@ -6182,13 +5363,10 @@
       <c r="E273">
         <v>101</v>
       </c>
-      <c r="F273">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B274">
         <v>567826.66952891601</v>
@@ -6203,13 +5381,10 @@
       <c r="E274">
         <v>101</v>
       </c>
-      <c r="F274">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B275">
         <v>567936.92600676196</v>
@@ -6224,13 +5399,10 @@
       <c r="E275">
         <v>101</v>
       </c>
-      <c r="F275">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B276">
         <v>568227.19843761297</v>
@@ -6245,13 +5417,10 @@
       <c r="E276">
         <v>101</v>
       </c>
-      <c r="F276">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>8</v>
       </c>
       <c r="B277">
         <v>573074.06993351202</v>
@@ -6266,13 +5435,10 @@
       <c r="E277">
         <v>102</v>
       </c>
-      <c r="F277">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B278">
         <v>573312.06029620301</v>
@@ -6287,13 +5453,10 @@
       <c r="E278">
         <v>102</v>
       </c>
-      <c r="F278">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B279">
         <v>573457.69283293502</v>
@@ -6308,13 +5471,10 @@
       <c r="E279">
         <v>102</v>
       </c>
-      <c r="F279">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B280">
         <v>573786.56209406303</v>
@@ -6329,13 +5489,10 @@
       <c r="E280">
         <v>102</v>
       </c>
-      <c r="F280">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B281">
         <v>578829.847855862</v>
@@ -6350,13 +5507,10 @@
       <c r="E281">
         <v>103</v>
       </c>
-      <c r="F281">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B282">
         <v>579043.88370516396</v>
@@ -6371,13 +5525,10 @@
       <c r="E282">
         <v>103</v>
       </c>
-      <c r="F282">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B283">
         <v>579293.10594502103</v>
@@ -6392,13 +5543,10 @@
       <c r="E283">
         <v>103</v>
       </c>
-      <c r="F283">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B284">
         <v>584578.33226940304</v>
@@ -6413,13 +5561,10 @@
       <c r="E284">
         <v>104</v>
       </c>
-      <c r="F284">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B285">
         <v>584732.33342777297</v>
@@ -6434,13 +5579,10 @@
       <c r="E285">
         <v>104</v>
       </c>
-      <c r="F285">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B286">
         <v>584802.22038273397</v>
@@ -6455,13 +5597,10 @@
       <c r="E286">
         <v>104</v>
       </c>
-      <c r="F286">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B287">
         <v>590371.97159462702</v>
@@ -6476,13 +5615,10 @@
       <c r="E287">
         <v>105</v>
       </c>
-      <c r="F287">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B288">
         <v>590634.69684795104</v>
@@ -6497,13 +5633,10 @@
       <c r="E288">
         <v>105</v>
       </c>
-      <c r="F288">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B289">
         <v>596040.68796465104</v>
@@ -6518,13 +5651,10 @@
       <c r="E289">
         <v>106</v>
       </c>
-      <c r="F289">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B290">
         <v>601878.52672832203</v>
@@ -6539,13 +5669,10 @@
       <c r="E290">
         <v>107</v>
       </c>
-      <c r="F290">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B291">
         <v>602473.83272372303</v>
@@ -6560,13 +5687,10 @@
       <c r="E291">
         <v>107</v>
       </c>
-      <c r="F291">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B292">
         <v>608064.60920572397</v>
@@ -6581,13 +5705,10 @@
       <c r="E292">
         <v>108</v>
       </c>
-      <c r="F292">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B293">
         <v>613686.52885863604</v>
@@ -6602,13 +5723,10 @@
       <c r="E293">
         <v>109</v>
       </c>
-      <c r="F293">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B294">
         <v>614026.19032699603</v>
@@ -6623,13 +5741,10 @@
       <c r="E294">
         <v>109</v>
       </c>
-      <c r="F294">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B295">
         <v>619319.46000665706</v>
@@ -6644,13 +5759,10 @@
       <c r="E295">
         <v>110</v>
       </c>
-      <c r="F295">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B296">
         <v>619468.25435740803</v>
@@ -6665,13 +5777,10 @@
       <c r="E296">
         <v>110</v>
       </c>
-      <c r="F296">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B297">
         <v>619652.322528027</v>
@@ -6686,13 +5795,10 @@
       <c r="E297">
         <v>110</v>
       </c>
-      <c r="F297">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B298">
         <v>619733.29905224196</v>
@@ -6707,13 +5813,10 @@
       <c r="E298">
         <v>110</v>
       </c>
-      <c r="F298">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B299">
         <v>624959.77163388103</v>
@@ -6728,13 +5831,10 @@
       <c r="E299">
         <v>111</v>
       </c>
-      <c r="F299">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B300">
         <v>625025.75717415102</v>
@@ -6749,13 +5849,10 @@
       <c r="E300">
         <v>111</v>
       </c>
-      <c r="F300">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B301">
         <v>625212.12722942</v>
@@ -6770,13 +5867,10 @@
       <c r="E301">
         <v>111</v>
       </c>
-      <c r="F301">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B302">
         <v>630416.23490817798</v>
@@ -6791,13 +5885,10 @@
       <c r="E302">
         <v>112</v>
       </c>
-      <c r="F302">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B303">
         <v>630635.61730386806</v>
@@ -6812,13 +5903,10 @@
       <c r="E303">
         <v>112</v>
       </c>
-      <c r="F303">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B304">
         <v>630839.04513759504</v>
@@ -6833,13 +5921,10 @@
       <c r="E304">
         <v>112</v>
       </c>
-      <c r="F304">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B305">
         <v>630867.73278740095</v>
@@ -6854,13 +5939,10 @@
       <c r="E305">
         <v>112</v>
       </c>
-      <c r="F305">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B306">
         <v>635827.54773794895</v>
@@ -6875,13 +5957,10 @@
       <c r="E306">
         <v>113</v>
       </c>
-      <c r="F306">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B307">
         <v>636251.06071891601</v>
@@ -6896,13 +5975,10 @@
       <c r="E307">
         <v>113</v>
       </c>
-      <c r="F307">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B308">
         <v>636371.48452663701</v>
@@ -6917,13 +5993,10 @@
       <c r="E308">
         <v>113</v>
       </c>
-      <c r="F308">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B309">
         <v>641322.113418811</v>
@@ -6938,13 +6011,10 @@
       <c r="E309">
         <v>114</v>
       </c>
-      <c r="F309">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B310">
         <v>641853.72585194802</v>
@@ -6959,13 +6029,10 @@
       <c r="E310">
         <v>114</v>
       </c>
-      <c r="F310">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B311">
         <v>641977.45088698703</v>
@@ -6980,13 +6047,10 @@
       <c r="E311">
         <v>114</v>
       </c>
-      <c r="F311">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B312">
         <v>646931.45243504399</v>
@@ -7001,13 +6065,10 @@
       <c r="E312">
         <v>115</v>
       </c>
-      <c r="F312">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B313">
         <v>647416.50892876799</v>
@@ -7022,13 +6083,10 @@
       <c r="E313">
         <v>115</v>
       </c>
-      <c r="F313">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B314">
         <v>647591.92668299202</v>
@@ -7043,13 +6101,10 @@
       <c r="E314">
         <v>115</v>
       </c>
-      <c r="F314">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B315">
         <v>652403.05902694899</v>
@@ -7064,13 +6119,10 @@
       <c r="E315">
         <v>116</v>
       </c>
-      <c r="F315">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B316">
         <v>652710.32422151195</v>
@@ -7085,13 +6137,10 @@
       <c r="E316">
         <v>116</v>
       </c>
-      <c r="F316">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B317">
         <v>652929.69470224099</v>
@@ -7106,13 +6155,10 @@
       <c r="E317">
         <v>116</v>
       </c>
-      <c r="F317">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B318">
         <v>653201.06431381195</v>
@@ -7127,13 +6173,10 @@
       <c r="E318">
         <v>116</v>
       </c>
-      <c r="F318">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B319">
         <v>658004.19051294203</v>
@@ -7148,13 +6191,10 @@
       <c r="E319">
         <v>117</v>
       </c>
-      <c r="F319">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B320">
         <v>658330.80507067405</v>
@@ -7169,13 +6209,10 @@
       <c r="E320">
         <v>117</v>
       </c>
-      <c r="F320">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B321">
         <v>658442.46955439902</v>
@@ -7190,13 +6227,10 @@
       <c r="E321">
         <v>117</v>
       </c>
-      <c r="F321">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B322">
         <v>658772.29070941405</v>
@@ -7211,13 +6245,10 @@
       <c r="E322">
         <v>117</v>
       </c>
-      <c r="F322">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B323">
         <v>663802.40525102196</v>
@@ -7232,13 +6263,10 @@
       <c r="E323">
         <v>118</v>
       </c>
-      <c r="F323">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B324">
         <v>664011.44791412097</v>
@@ -7253,13 +6281,10 @@
       <c r="E324">
         <v>118</v>
       </c>
-      <c r="F324">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B325">
         <v>664287.21170557197</v>
@@ -7274,13 +6299,10 @@
       <c r="E325">
         <v>118</v>
       </c>
-      <c r="F325">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B326">
         <v>669490.63512823603</v>
@@ -7295,13 +6317,10 @@
       <c r="E326">
         <v>119</v>
       </c>
-      <c r="F326">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B327">
         <v>669674.84635931696</v>
@@ -7316,13 +6335,10 @@
       <c r="E327">
         <v>119</v>
       </c>
-      <c r="F327">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B328">
         <v>669790.02286337398</v>
@@ -7337,13 +6353,10 @@
       <c r="E328">
         <v>119</v>
       </c>
-      <c r="F328">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B329">
         <v>675343.29725655797</v>
@@ -7358,13 +6371,10 @@
       <c r="E329">
         <v>120</v>
       </c>
-      <c r="F329">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B330">
         <v>675491.60081824195</v>
@@ -7379,13 +6389,10 @@
       <c r="E330">
         <v>120</v>
       </c>
-      <c r="F330">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B331">
         <v>680987.81810340297</v>
@@ -7400,13 +6407,10 @@
       <c r="E331">
         <v>121</v>
       </c>
-      <c r="F331">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B332">
         <v>686773.15054236201</v>
@@ -7421,13 +6425,10 @@
       <c r="E332">
         <v>122</v>
       </c>
-      <c r="F332">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B333">
         <v>687458.98627174995</v>
@@ -7442,13 +6443,10 @@
       <c r="E333">
         <v>122</v>
       </c>
-      <c r="F333">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B334">
         <v>693034.61445296905</v>
@@ -7463,13 +6461,10 @@
       <c r="E334">
         <v>123</v>
       </c>
-      <c r="F334">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B335">
         <v>698652.54583330394</v>
@@ -7484,13 +6479,10 @@
       <c r="E335">
         <v>124</v>
       </c>
-      <c r="F335">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B336">
         <v>699013.01005595701</v>
@@ -7505,13 +6497,10 @@
       <c r="E336">
         <v>124</v>
       </c>
-      <c r="F336">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B337">
         <v>704283.83409830998</v>
@@ -7526,13 +6515,10 @@
       <c r="E337">
         <v>125</v>
       </c>
-      <c r="F337">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B338">
         <v>704518.58735046897</v>
@@ -7547,13 +6533,10 @@
       <c r="E338">
         <v>125</v>
       </c>
-      <c r="F338">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B339">
         <v>704606.95729949197</v>
@@ -7568,13 +6551,10 @@
       <c r="E339">
         <v>125</v>
       </c>
-      <c r="F339">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B340">
         <v>709921.63524499803</v>
@@ -7589,13 +6569,10 @@
       <c r="E340">
         <v>126</v>
       </c>
-      <c r="F340">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B341">
         <v>709998.79927796405</v>
@@ -7610,13 +6587,10 @@
       <c r="E341">
         <v>126</v>
       </c>
-      <c r="F341">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>10</v>
       </c>
       <c r="B342">
         <v>710188.70107703598</v>
@@ -7631,13 +6605,10 @@
       <c r="E342">
         <v>126</v>
       </c>
-      <c r="F342">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B343">
         <v>715435.66695292096</v>
@@ -7652,13 +6623,10 @@
       <c r="E343">
         <v>127</v>
       </c>
-      <c r="F343">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B344">
         <v>715604.58749965299</v>
@@ -7673,13 +6641,10 @@
       <c r="E344">
         <v>127</v>
       </c>
-      <c r="F344">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>10</v>
       </c>
       <c r="B345">
         <v>715799.31510592205</v>
@@ -7694,13 +6659,10 @@
       <c r="E345">
         <v>127</v>
       </c>
-      <c r="F345">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B346">
         <v>720833.92413176002</v>
@@ -7715,13 +6677,10 @@
       <c r="E346">
         <v>128</v>
       </c>
-      <c r="F346">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B347">
         <v>721219.75933217397</v>
@@ -7736,13 +6695,10 @@
       <c r="E347">
         <v>128</v>
       </c>
-      <c r="F347">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B348">
         <v>721346.86108766403</v>
@@ -7757,13 +6713,10 @@
       <c r="E348">
         <v>128</v>
       </c>
-      <c r="F348">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>10</v>
       </c>
       <c r="B349">
         <v>721519.08674466098</v>
@@ -7778,13 +6731,10 @@
       <c r="E349">
         <v>128</v>
       </c>
-      <c r="F349">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B350">
         <v>726307.95152202505</v>
@@ -7799,13 +6749,10 @@
       <c r="E350">
         <v>129</v>
       </c>
-      <c r="F350">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B351">
         <v>726827.454328408</v>
@@ -7820,13 +6767,10 @@
       <c r="E351">
         <v>129</v>
       </c>
-      <c r="F351">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B352">
         <v>726946.76141859195</v>
@@ -7841,13 +6785,10 @@
       <c r="E352">
         <v>129</v>
       </c>
-      <c r="F352">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B353">
         <v>731890.14941765997</v>
@@ -7862,13 +6803,10 @@
       <c r="E353">
         <v>130</v>
       </c>
-      <c r="F353">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B354">
         <v>732401.14173221402</v>
@@ -7883,13 +6821,10 @@
       <c r="E354">
         <v>130</v>
       </c>
-      <c r="F354">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B355">
         <v>732560.83127715101</v>
@@ -7904,13 +6839,10 @@
       <c r="E355">
         <v>130</v>
       </c>
-      <c r="F355">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B356">
         <v>737412.54193186702</v>
@@ -7925,13 +6857,10 @@
       <c r="E356">
         <v>131</v>
       </c>
-      <c r="F356">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B357">
         <v>737622.30207302806</v>
@@ -7946,13 +6875,10 @@
       <c r="E357">
         <v>131</v>
       </c>
-      <c r="F357">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B358">
         <v>737922.47485278</v>
@@ -7967,13 +6893,10 @@
       <c r="E358">
         <v>131</v>
       </c>
-      <c r="F358">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B359">
         <v>738173.14776060905</v>
@@ -7988,13 +6911,10 @@
       <c r="E359">
         <v>131</v>
       </c>
-      <c r="F359">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B360">
         <v>742951.61955654295</v>
@@ -8009,13 +6929,10 @@
       <c r="E360">
         <v>132</v>
       </c>
-      <c r="F360">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>10</v>
       </c>
       <c r="B361">
         <v>743366.45015466795</v>
@@ -8030,13 +6947,10 @@
       <c r="E361">
         <v>132</v>
       </c>
-      <c r="F361">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B362">
         <v>743429.87378567201</v>
@@ -8051,13 +6965,10 @@
       <c r="E362">
         <v>132</v>
       </c>
-      <c r="F362">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B363">
         <v>743755.16376336804</v>
@@ -8072,13 +6983,10 @@
       <c r="E363">
         <v>132</v>
       </c>
-      <c r="F363">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>10</v>
       </c>
       <c r="B364">
         <v>748783.98981503095</v>
@@ -8093,13 +7001,10 @@
       <c r="E364">
         <v>133</v>
       </c>
-      <c r="F364">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B365">
         <v>748983.29193024198</v>
@@ -8114,13 +7019,10 @@
       <c r="E365">
         <v>133</v>
       </c>
-      <c r="F365">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B366">
         <v>749280.755395227</v>
@@ -8135,13 +7037,10 @@
       <c r="E366">
         <v>133</v>
       </c>
-      <c r="F366">
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>10</v>
       </c>
       <c r="B367">
         <v>754421.90810521203</v>
@@ -8156,13 +7055,10 @@
       <c r="E367">
         <v>134</v>
       </c>
-      <c r="F367">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B368">
         <v>754623.59448608698</v>
@@ -8177,13 +7073,10 @@
       <c r="E368">
         <v>134</v>
       </c>
-      <c r="F368">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B369">
         <v>754780.21499143005</v>
@@ -8198,13 +7091,10 @@
       <c r="E369">
         <v>134</v>
       </c>
-      <c r="F369">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B370">
         <v>760318.75769718003</v>
@@ -8219,13 +7109,10 @@
       <c r="E370">
         <v>135</v>
       </c>
-      <c r="F370">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B371">
         <v>760395.74728415895</v>
@@ -8240,13 +7127,10 @@
       <c r="E371">
         <v>135</v>
       </c>
-      <c r="F371">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B372">
         <v>765940.91185417399</v>
@@ -8261,13 +7145,10 @@
       <c r="E372">
         <v>136</v>
       </c>
-      <c r="F372">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B373">
         <v>771688.01068895997</v>
@@ -8282,13 +7163,10 @@
       <c r="E373">
         <v>137</v>
       </c>
-      <c r="F373">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B374">
         <v>772455.21509236505</v>
@@ -8303,13 +7181,10 @@
       <c r="E374">
         <v>137</v>
       </c>
-      <c r="F374">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B375">
         <v>778006.09034309501</v>
@@ -8324,13 +7199,10 @@
       <c r="E375">
         <v>138</v>
       </c>
-      <c r="F375">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B376">
         <v>783619.14005826798</v>
@@ -8345,13 +7217,10 @@
       <c r="E376">
         <v>139</v>
       </c>
-      <c r="F376">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B377">
         <v>784013.37157932704</v>
@@ -8366,13 +7235,10 @@
       <c r="E377">
         <v>139</v>
       </c>
-      <c r="F377">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B378">
         <v>789248.57399671804</v>
@@ -8387,13 +7253,10 @@
       <c r="E378">
         <v>140</v>
       </c>
-      <c r="F378">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B379">
         <v>789568.39365650201</v>
@@ -8408,13 +7271,10 @@
       <c r="E379">
         <v>140</v>
       </c>
-      <c r="F379">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B380">
         <v>794885.08698162704</v>
@@ -8429,13 +7289,10 @@
       <c r="E380">
         <v>141</v>
       </c>
-      <c r="F380">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B381">
         <v>794974.26318420202</v>
@@ -8450,13 +7307,10 @@
       <c r="E381">
         <v>141</v>
       </c>
-      <c r="F381">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B382">
         <v>795171.02312154102</v>
@@ -8471,13 +7325,10 @@
       <c r="E382">
         <v>141</v>
       </c>
-      <c r="F382">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B383">
         <v>795329.95405011903</v>
@@ -8492,13 +7343,10 @@
       <c r="E383">
         <v>141</v>
       </c>
-      <c r="F383">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B384">
         <v>800457.85661878902</v>
@@ -8513,13 +7361,10 @@
       <c r="E384">
         <v>142</v>
       </c>
-      <c r="F384">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B385">
         <v>800573.78489139595</v>
@@ -8534,13 +7379,10 @@
       <c r="E385">
         <v>142</v>
       </c>
-      <c r="F385">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B386">
         <v>800762.85156504204</v>
@@ -8555,13 +7397,10 @@
       <c r="E386">
         <v>142</v>
       </c>
-      <c r="F386">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B387">
         <v>805843.77745463105</v>
@@ -8576,13 +7415,10 @@
       <c r="E387">
         <v>143</v>
       </c>
-      <c r="F387">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B388">
         <v>806188.45796897297</v>
@@ -8597,13 +7433,10 @@
       <c r="E388">
         <v>143</v>
       </c>
-      <c r="F388">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B389">
         <v>806325.64090086299</v>
@@ -8618,13 +7451,10 @@
       <c r="E389">
         <v>143</v>
       </c>
-      <c r="F389">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B390">
         <v>806441.53804287605</v>
@@ -8639,13 +7469,10 @@
       <c r="E390">
         <v>143</v>
       </c>
-      <c r="F390">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B391">
         <v>811298.68284420995</v>
@@ -8660,13 +7487,10 @@
       <c r="E391">
         <v>144</v>
       </c>
-      <c r="F391">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B392">
         <v>811799.84396641003</v>
@@ -8681,13 +7505,10 @@
       <c r="E392">
         <v>144</v>
       </c>
-      <c r="F392">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B393">
         <v>811916.24415444303</v>
@@ -8702,13 +7523,10 @@
       <c r="E393">
         <v>144</v>
       </c>
-      <c r="F393">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B394">
         <v>816855.33103283006</v>
@@ -8723,13 +7541,10 @@
       <c r="E394">
         <v>145</v>
       </c>
-      <c r="F394">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B395">
         <v>817383.05439622002</v>
@@ -8744,13 +7559,10 @@
       <c r="E395">
         <v>145</v>
       </c>
-      <c r="F395">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B396">
         <v>817529.73589580494</v>
@@ -8765,13 +7577,10 @@
       <c r="E396">
         <v>145</v>
       </c>
-      <c r="F396">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B397">
         <v>822440.62868937396</v>
@@ -8786,13 +7595,10 @@
       <c r="E397">
         <v>146</v>
       </c>
-      <c r="F397">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B398">
         <v>822549.09651893901</v>
@@ -8807,13 +7613,10 @@
       <c r="E398">
         <v>146</v>
       </c>
-      <c r="F398">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B399">
         <v>822914.57842706004</v>
@@ -8828,13 +7631,10 @@
       <c r="E399">
         <v>146</v>
       </c>
-      <c r="F399">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B400">
         <v>823144.21200216794</v>
@@ -8849,13 +7649,10 @@
       <c r="E400">
         <v>146</v>
       </c>
-      <c r="F400">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B401">
         <v>827913.034133318</v>
@@ -8870,13 +7667,10 @@
       <c r="E401">
         <v>147</v>
       </c>
-      <c r="F401">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B402">
         <v>828419.46775067504</v>
@@ -8891,13 +7685,10 @@
       <c r="E402">
         <v>147</v>
       </c>
-      <c r="F402">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B403">
         <v>828454.79347321205</v>
@@ -8912,13 +7703,10 @@
       <c r="E403">
         <v>147</v>
       </c>
-      <c r="F403">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B404">
         <v>828735.13510519604</v>
@@ -8933,13 +7721,10 @@
       <c r="E404">
         <v>147</v>
       </c>
-      <c r="F404">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B405">
         <v>833739.112392899</v>
@@ -8954,13 +7739,10 @@
       <c r="E405">
         <v>148</v>
       </c>
-      <c r="F405">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B406">
         <v>833774.56856309099</v>
@@ -8975,13 +7757,10 @@
       <c r="E406">
         <v>148</v>
       </c>
-      <c r="F406">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B407">
         <v>833959.08303797001</v>
@@ -8996,13 +7775,10 @@
       <c r="E407">
         <v>148</v>
       </c>
-      <c r="F407">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B408">
         <v>834272.98166187096</v>
@@ -9017,13 +7793,10 @@
       <c r="E408">
         <v>148</v>
       </c>
-      <c r="F408">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B409">
         <v>839366.81277140696</v>
@@ -9038,13 +7811,10 @@
       <c r="E409">
         <v>149</v>
       </c>
-      <c r="F409">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B410">
         <v>839577.98325841594</v>
@@ -9059,13 +7829,10 @@
       <c r="E410">
         <v>149</v>
       </c>
-      <c r="F410">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B411">
         <v>839772.29007865605</v>
@@ -9080,13 +7847,10 @@
       <c r="E411">
         <v>149</v>
       </c>
-      <c r="F411">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B412">
         <v>845298.026769649</v>
@@ -9101,13 +7865,10 @@
       <c r="E412">
         <v>150</v>
       </c>
-      <c r="F412">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B413">
         <v>845315.294332347</v>
@@ -9122,13 +7883,10 @@
       <c r="E413">
         <v>150</v>
       </c>
-      <c r="F413">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B414">
         <v>850899.44737089798</v>
@@ -9143,13 +7901,10 @@
       <c r="E414">
         <v>151</v>
       </c>
-      <c r="F414">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B415">
         <v>856614.54224935395</v>
@@ -9164,13 +7919,10 @@
       <c r="E415">
         <v>152</v>
       </c>
-      <c r="F415">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B416">
         <v>857487.16582835105</v>
@@ -9185,13 +7937,10 @@
       <c r="E416">
         <v>152</v>
       </c>
-      <c r="F416">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B417">
         <v>862979.81133769394</v>
@@ -9206,13 +7955,10 @@
       <c r="E417">
         <v>153</v>
       </c>
-      <c r="F417">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B418">
         <v>868586.48350690701</v>
@@ -9227,13 +7973,10 @@
       <c r="E418">
         <v>154</v>
       </c>
-      <c r="F418">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B419">
         <v>869043.790935706</v>
@@ -9248,13 +7991,10 @@
       <c r="E419">
         <v>154</v>
       </c>
-      <c r="F419">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B420">
         <v>874213.52100063895</v>
@@ -9269,13 +8009,10 @@
       <c r="E420">
         <v>155</v>
       </c>
-      <c r="F420">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B421">
         <v>874535.69712032401</v>
@@ -9290,13 +8027,10 @@
       <c r="E421">
         <v>155</v>
       </c>
-      <c r="F421">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B422">
         <v>879848.805287314</v>
@@ -9311,13 +8045,10 @@
       <c r="E422">
         <v>156</v>
       </c>
-      <c r="F422">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B423">
         <v>879953.40964885405</v>
@@ -9332,13 +8063,10 @@
       <c r="E423">
         <v>156</v>
       </c>
-      <c r="F423">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B424">
         <v>880162.00954467698</v>
@@ -9353,13 +8081,10 @@
       <c r="E424">
         <v>156</v>
       </c>
-      <c r="F424">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B425">
         <v>880222.93651641498</v>
@@ -9374,13 +8099,10 @@
       <c r="E425">
         <v>156</v>
       </c>
-      <c r="F425">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B426">
         <v>885543.23336957104</v>
@@ -9395,13 +8117,10 @@
       <c r="E426">
         <v>157</v>
       </c>
-      <c r="F426">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B427">
         <v>885729.50412277097</v>
@@ -9416,13 +8135,10 @@
       <c r="E427">
         <v>157</v>
       </c>
-      <c r="F427">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B428">
         <v>890856.71707039396</v>
@@ -9437,13 +8153,10 @@
       <c r="E428">
         <v>158</v>
       </c>
-      <c r="F428">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B429">
         <v>891157.15662931895</v>
@@ -9458,13 +8171,10 @@
       <c r="E429">
         <v>158</v>
       </c>
-      <c r="F429">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B430">
         <v>891310.72330691095</v>
@@ -9479,13 +8189,10 @@
       <c r="E430">
         <v>158</v>
       </c>
-      <c r="F430">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B431">
         <v>891385.27606943797</v>
@@ -9500,13 +8207,10 @@
       <c r="E431">
         <v>158</v>
       </c>
-      <c r="F431">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B432">
         <v>896294.03789999499</v>
@@ -9521,13 +8225,10 @@
       <c r="E432">
         <v>159</v>
       </c>
-      <c r="F432">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B433">
         <v>896770.46556569601</v>
@@ -9542,13 +8243,10 @@
       <c r="E433">
         <v>159</v>
       </c>
-      <c r="F433">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B434">
         <v>896886.89896730299</v>
@@ -9563,13 +8261,10 @@
       <c r="E434">
         <v>159</v>
       </c>
-      <c r="F434">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B435">
         <v>901826.55153224897</v>
@@ -9584,13 +8279,10 @@
       <c r="E435">
         <v>160</v>
       </c>
-      <c r="F435">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B436">
         <v>902362.48138628702</v>
@@ -9605,13 +8297,10 @@
       <c r="E436">
         <v>160</v>
       </c>
-      <c r="F436">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B437">
         <v>902498.64053895394</v>
@@ -9626,13 +8315,10 @@
       <c r="E437">
         <v>160</v>
       </c>
-      <c r="F437">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B438">
         <v>907486.57233523601</v>
@@ -9647,13 +8333,10 @@
       <c r="E438">
         <v>161</v>
       </c>
-      <c r="F438">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B439">
         <v>907504.60713848704</v>
@@ -9668,13 +8351,10 @@
       <c r="E439">
         <v>161</v>
       </c>
-      <c r="F439">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B440">
         <v>907905.31162980001</v>
@@ -9689,13 +8369,10 @@
       <c r="E440">
         <v>161</v>
       </c>
-      <c r="F440">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B441">
         <v>908113.11653026799</v>
@@ -9710,13 +8387,10 @@
       <c r="E441">
         <v>161</v>
       </c>
-      <c r="F441">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B442">
         <v>912887.06118081603</v>
@@ -9731,13 +8405,10 @@
       <c r="E442">
         <v>162</v>
       </c>
-      <c r="F442">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B443">
         <v>913410.73392770696</v>
@@ -9752,13 +8423,10 @@
       <c r="E443">
         <v>162</v>
       </c>
-      <c r="F443">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B444">
         <v>913712.67451313697</v>
@@ -9773,13 +8441,10 @@
       <c r="E444">
         <v>162</v>
       </c>
-      <c r="F444">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B445">
         <v>918605.55820407998</v>
@@ -9794,13 +8459,10 @@
       <c r="E445">
         <v>163</v>
       </c>
-      <c r="F445">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B446">
         <v>918774.50002136303</v>
@@ -9815,13 +8477,10 @@
       <c r="E446">
         <v>163</v>
       </c>
-      <c r="F446">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B447">
         <v>918938.49620932702</v>
@@ -9836,13 +8495,10 @@
       <c r="E447">
         <v>163</v>
       </c>
-      <c r="F447">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B448">
         <v>919263.244756434</v>
@@ -9857,13 +8513,10 @@
       <c r="E448">
         <v>163</v>
       </c>
-      <c r="F448">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B449">
         <v>924322.93123027706</v>
@@ -9878,13 +8531,10 @@
       <c r="E449">
         <v>164</v>
       </c>
-      <c r="F449">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B450">
         <v>924537.59518695599</v>
@@ -9899,13 +8549,10 @@
       <c r="E450">
         <v>164</v>
       </c>
-      <c r="F450">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B451">
         <v>924765.68405068701</v>
@@ -9920,13 +8567,10 @@
       <c r="E451">
         <v>164</v>
       </c>
-      <c r="F451">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B452">
         <v>930127.43738363904</v>
@@ -9941,13 +8585,10 @@
       <c r="E452">
         <v>165</v>
       </c>
-      <c r="F452">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B453">
         <v>930244.98938458797</v>
@@ -9962,13 +8603,10 @@
       <c r="E453">
         <v>165</v>
       </c>
-      <c r="F453">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B454">
         <v>930280.77569341904</v>
@@ -9982,9 +8620,6 @@
       </c>
       <c r="E454">
         <v>165</v>
-      </c>
-      <c r="F454">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
